--- a/Cheat_Sheet.xlsx
+++ b/Cheat_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppoonacha/nodeapps/MP260-Interactive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D19A8-7BB3-EB4A-85C5-F8417AFB3FF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39038E4B-B115-884F-BC66-4D8C01DB04A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheat Sheet" sheetId="1" r:id="rId1"/>
@@ -126,6 +126,12 @@
     <t>Roadmapping 3</t>
   </si>
   <si>
+    <t xml:space="preserve"> Bangalore's Comments </t>
+  </si>
+  <si>
+    <t>Kesha's Comments</t>
+  </si>
+  <si>
     <t>FLEX_SILHOUETE</t>
   </si>
   <si>
@@ -322,12 +328,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bangalores Comments </t>
-  </si>
-  <si>
-    <t>Keshas Comments</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,653 +805,653 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="AK1" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AL1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AM1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AN1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AP1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2">
         <v>382371</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AP2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q3">
         <v>382371</v>
       </c>
       <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
         <v>91</v>
       </c>
-      <c r="AK3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>89</v>
-      </c>
       <c r="AP3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4">
         <v>388862</v>
       </c>
       <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s">
         <v>75</v>
       </c>
-      <c r="S4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s">
-        <v>73</v>
-      </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AP4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q5">
         <v>387981</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AO5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AP5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q6">
         <v>387981</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AM6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AP6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
